--- a/legislator/property/output/normal/潘維剛_2011-11-21_財產申報表_tmpcafb1.xlsx
+++ b/legislator/property/output/normal/潘維剛_2011-11-21_財產申報表_tmpcafb1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="132">
   <si>
     <t>土地坐落</t>
   </si>
@@ -208,6 +208,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -217,7 +220,10 @@
     <t>legislator_id</t>
   </si>
   <si>
-    <t>力宇創業投資股份有限公 司.</t>
+    <t>力宇創業投資股份有限公司.</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2011-11-21</t>
@@ -841,22 +847,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -867,19 +873,19 @@
         <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E2" s="2">
         <v>2000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -890,19 +896,19 @@
         <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E3" s="2">
         <v>900000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -913,19 +919,19 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E4" s="2">
         <v>5000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -936,19 +942,19 @@
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E5" s="2">
         <v>612900</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1472,13 +1478,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>55</v>
       </c>
@@ -1506,13 +1512,16 @@
       <c r="J1" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>52</v>
@@ -1530,12 +1539,15 @@
         <v>2519930</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>678</v>
       </c>
     </row>
@@ -1554,25 +1566,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1580,13 +1592,13 @@
         <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2">
         <v>2655.68</v>
@@ -1598,7 +1610,7 @@
         <v>51</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1616,22 +1628,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1639,14 +1651,14 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1656,22 +1668,22 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1689,13 +1701,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1703,10 +1715,10 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>52</v>
@@ -1717,13 +1729,13 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1731,10 +1743,10 @@
         <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
@@ -1755,22 +1767,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1778,22 +1790,22 @@
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E2" s="2">
         <v>11798308</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1801,22 +1813,22 @@
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E3" s="2">
         <v>7355323</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/潘維剛_2011-11-21_財產申報表_tmpcafb1.xlsx
+++ b/legislator/property/output/normal/潘維剛_2011-11-21_財產申報表_tmpcafb1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="137">
   <si>
     <t>土地坐落</t>
   </si>
@@ -211,6 +211,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -220,13 +223,25 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>力宇創業投資股份有限公司.</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2011-11-21</t>
+  </si>
+  <si>
+    <t>tmpcafb1</t>
   </si>
   <si>
     <t>名稱</t>
@@ -847,22 +862,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -873,19 +888,19 @@
         <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E2" s="2">
         <v>2000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -896,19 +911,19 @@
         <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E3" s="2">
         <v>900000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -919,19 +934,19 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E4" s="2">
         <v>5000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -942,19 +957,19 @@
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E5" s="2">
         <v>612900</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1478,13 +1493,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>55</v>
       </c>
@@ -1515,13 +1530,22 @@
       <c r="K1" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>52</v>
@@ -1539,16 +1563,25 @@
         <v>2519930</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>678</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N2" s="2">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1566,25 +1599,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1592,13 +1625,13 @@
         <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2">
         <v>2655.68</v>
@@ -1610,7 +1643,7 @@
         <v>51</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1628,22 +1661,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1651,14 +1684,14 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1668,22 +1701,22 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1701,13 +1734,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1715,10 +1748,10 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>52</v>
@@ -1729,13 +1762,13 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1743,10 +1776,10 @@
         <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
@@ -1767,22 +1800,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1790,22 +1823,22 @@
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E2" s="2">
         <v>11798308</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1813,22 +1846,22 @@
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E3" s="2">
         <v>7355323</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/潘維剛_2011-11-21_財產申報表_tmpcafb1.xlsx
+++ b/legislator/property/output/normal/潘維剛_2011-11-21_財產申報表_tmpcafb1.xlsx
@@ -23,9 +23,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="137">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="139">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市松山區敦化段五小段00290010地號</t>
+  </si>
+  <si>
+    <t>374分之24</t>
+  </si>
+  <si>
+    <t>田正超</t>
+  </si>
+  <si>
+    <t>72牟06月11曰</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-11-21</t>
+  </si>
+  <si>
+    <t>潘維剛</t>
+  </si>
+  <si>
+    <t>tmpcafb1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -40,37 +115,13 @@
     <t>登記（取得）時間</t>
   </si>
   <si>
-    <t>登記（取‘得）原因</t>
+    <t>登記（取得）原因</t>
   </si>
   <si>
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市松山區敦化段五小段 0029-0010 地號</t>
-  </si>
-  <si>
-    <t>374分之24</t>
-  </si>
-  <si>
-    <t>田正超</t>
-  </si>
-  <si>
-    <t>72牟06月 11曰</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>臺北市松山區敦化段五小段 02392 - 000建號(陽台面積16.96 平方公尺）</t>
+    <t>臺北市松山區敦化段五小段02392000建號(陽台面積16.96平方公尺）</t>
   </si>
   <si>
     <t>全部</t>
@@ -79,7 +130,7 @@
     <t>‘田正超</t>
   </si>
   <si>
-    <t>' 72年06月 11曰</t>
+    <t>72年06月11曰</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -91,13 +142,10 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>登記（取-得）時間</t>
-  </si>
-  <si>
     <t>LEXUS</t>
   </si>
   <si>
-    <t>97年07月 07日</t>
+    <t>97年07月07日</t>
   </si>
   <si>
     <t>買*</t>
@@ -118,10 +166,10 @@
     <t>外</t>
   </si>
   <si>
-    <t>立法院郵局（第2 5支局）</t>
-  </si>
-  <si>
-    <t>台北長安郵局（第4 6支 局）</t>
+    <t>立法院郵局（第25支局）</t>
+  </si>
+  <si>
+    <t>台北長安郵局（第46支局）</t>
   </si>
   <si>
     <t>台新國際商業銀行營業部</t>
@@ -130,10 +178,10 @@
     <t>花旗（台灣）銀行營業部</t>
   </si>
   <si>
-    <t>台北富邦商業銀行敦南分 行</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行敦北分 行</t>
+    <t>台北富邦商業銀行敦南分行</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行敦北分行</t>
   </si>
   <si>
     <t>永豐商業銀行西松分行</t>
@@ -142,13 +190,13 @@
     <t>永豐商業銀行板新分行</t>
   </si>
   <si>
-    <t>日盛國際商業銀行松山分 行</t>
+    <t>日盛國際商業銀行松山分行</t>
   </si>
   <si>
     <t>彰化商業銀行總行</t>
   </si>
   <si>
-    <t>台北富邦商業銀行永春分 行</t>
+    <t>台北富邦商業銀行永春分行</t>
   </si>
   <si>
     <t>玉山商業銀行民生分行</t>
@@ -160,7 +208,7 @@
     <t>永豐商業銀行松江分行</t>
   </si>
   <si>
-    <t>國泰世華商業銀行南京東 路分行</t>
+    <t>國泰世華商業銀行南京東路分行</t>
   </si>
   <si>
     <t>活期儲蓄存款</t>
@@ -184,18 +232,9 @@
     <t>潘维剛</t>
   </si>
   <si>
-    <t>潘維剛</t>
-  </si>
-  <si>
     <t>田iE超</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -208,42 +247,12 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>力宇創業投資股份有限公司.</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2011-11-21</t>
-  </si>
-  <si>
-    <t>tmpcafb1</t>
-  </si>
-  <si>
     <t>名稱</t>
   </si>
   <si>
@@ -265,10 +274,10 @@
     <t>貝萊德世界礦業</t>
   </si>
   <si>
-    <t>永豐-業銀行</t>
-  </si>
-  <si>
-    <t>5,162,572,87</t>
+    <t>永豐業銀行</t>
+  </si>
+  <si>
+    <t>516257287</t>
   </si>
   <si>
     <t>名</t>
@@ -286,22 +295,22 @@
     <t>人</t>
   </si>
   <si>
-    <t>(九）珠寶、古董、.字畫及#</t>
-  </si>
-  <si>
-    <t>財 產種類</t>
-  </si>
-  <si>
-    <t>-他具有相當價值之財產（總</t>
-  </si>
-  <si>
-    <t>項 /</t>
+    <t>(九）珠寶古董.字畫及#</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總</t>
+  </si>
+  <si>
+    <t>項</t>
   </si>
   <si>
     <t>件</t>
   </si>
   <si>
-    <t>【額：新臺幣 元） .</t>
+    <t>【額：新臺幣元）.</t>
   </si>
   <si>
     <t>價</t>
@@ -325,16 +334,13 @@
     <t>中國人壽</t>
   </si>
   <si>
-    <t>吉祥變額萬能终身壽險(A 型）</t>
-  </si>
-  <si>
-    <t>吉祥變額萬能終身壽險(A 型）</t>
-  </si>
-  <si>
-    <t>限期繳k單利增值終身壽險 已型</t>
-  </si>
-  <si>
-    <t>潘維剛、</t>
+    <t>吉祥變額萬能终身壽險(A型）</t>
+  </si>
+  <si>
+    <t>吉祥變額萬能終身壽險(A型）</t>
+  </si>
+  <si>
+    <t>限期繳k單利增值終身壽險已型</t>
   </si>
   <si>
     <t>種類</t>
@@ -361,16 +367,16 @@
     <t>一般借款</t>
   </si>
   <si>
-    <t>永骂銀行西松分拧 臺北市松山區東興路</t>
-  </si>
-  <si>
-    <t>永豐銀行板新分行 新北市板橋區民權路</t>
-  </si>
-  <si>
-    <t>95年10月 27 B</t>
-  </si>
-  <si>
-    <t>96年07月 25日</t>
+    <t>永骂銀行西松分拧臺北市松山區東興路</t>
+  </si>
+  <si>
+    <t>永豐銀行板新分行新北市板橋區民權路</t>
+  </si>
+  <si>
+    <t>95年10月27B</t>
+  </si>
+  <si>
+    <t>96年07月25日</t>
   </si>
   <si>
     <t>房貸</t>
@@ -391,7 +397,7 @@
     <t>取得（發生）時間</t>
   </si>
   <si>
-    <t>傳智國際文化事業座份有限 公司</t>
+    <t>傳智國際文化事業座份有限公司</t>
   </si>
   <si>
     <t>女人網股份有限公司</t>
@@ -403,28 +409,28 @@
     <t>中餘國際股份有限公司</t>
   </si>
   <si>
-    <t>臺北市羅斯福路2段116號 3樓</t>
-  </si>
-  <si>
-    <t>臺北市杭州南路1段63號5 樓之1</t>
-  </si>
-  <si>
-    <t>臺北市民權東路3段106巷 36號7樓</t>
-  </si>
-  <si>
-    <t>新北市寶橋路235巷6-5 號5樓</t>
-  </si>
-  <si>
-    <t>89年08月 11曰</t>
-  </si>
-  <si>
-    <t>98年08月 10日</t>
-  </si>
-  <si>
-    <t>92年03月 20日</t>
-  </si>
-  <si>
-    <t>82年06月 28日</t>
+    <t>臺北市羅斯福路2段116號3樓</t>
+  </si>
+  <si>
+    <t>臺北市杭州南路1段63號5樓之1</t>
+  </si>
+  <si>
+    <t>臺北市民權東路3段106巷36號7樓</t>
+  </si>
+  <si>
+    <t>新北市寶橋路235巷65號5樓</t>
+  </si>
+  <si>
+    <t>89年08月11曰</t>
+  </si>
+  <si>
+    <t>98年08月10日</t>
+  </si>
+  <si>
+    <t>92年03月20日</t>
+  </si>
+  <si>
+    <t>82年06月28日</t>
   </si>
   <si>
     <t>投資</t>
@@ -792,13 +798,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -820,31 +826,73 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>374</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2">
+        <v>678</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -862,22 +910,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -885,22 +933,22 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E2" s="2">
         <v>2000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -908,22 +956,22 @@
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E3" s="2">
         <v>900000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -931,22 +979,22 @@
         <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E4" s="2">
         <v>5000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -954,22 +1002,22 @@
         <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E5" s="2">
         <v>612900</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -987,25 +1035,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1013,25 +1061,25 @@
         <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2">
         <v>104.3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1049,22 +1097,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1072,19 +1120,19 @@
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2">
         <v>4608</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="G2" s="2">
         <v>2100000</v>
@@ -1105,22 +1153,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1128,16 +1176,16 @@
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1149,16 +1197,16 @@
         <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1170,16 +1218,16 @@
         <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1191,16 +1239,16 @@
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2">
         <v>239.38</v>
@@ -1214,16 +1262,16 @@
         <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1235,16 +1283,16 @@
         <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2">
         <v>12.41</v>
@@ -1258,16 +1306,16 @@
         <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1279,16 +1327,16 @@
         <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1300,16 +1348,16 @@
         <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -1321,16 +1369,16 @@
         <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -1342,16 +1390,16 @@
         <v>55</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1363,16 +1411,16 @@
         <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -1384,16 +1432,16 @@
         <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -1405,16 +1453,16 @@
         <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -1426,16 +1474,16 @@
         <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -1447,16 +1495,16 @@
         <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="F17" s="2">
         <v>649269.48</v>
@@ -1470,16 +1518,16 @@
         <v>61</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
@@ -1501,43 +1549,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1545,10 +1593,10 @@
         <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="D2" s="2">
         <v>251993</v>
@@ -1557,28 +1605,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="G2" s="2">
         <v>2519930</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="L2" s="2">
         <v>678</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="N2" s="2">
         <v>68</v>
@@ -1599,25 +1647,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1625,13 +1673,13 @@
         <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E2" s="2">
         <v>2655.68</v>
@@ -1640,10 +1688,10 @@
         <v>64.37</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1661,22 +1709,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1684,14 +1732,14 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1701,22 +1749,22 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1734,13 +1782,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1748,13 +1796,13 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1762,13 +1810,13 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1776,13 +1824,13 @@
         <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1800,22 +1848,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1823,22 +1871,22 @@
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E2" s="2">
         <v>11798308</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1846,22 +1894,22 @@
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E3" s="2">
         <v>7355323</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/潘維剛_2011-11-21_財產申報表_tmpcafb1.xlsx
+++ b/legislator/property/output/normal/潘維剛_2011-11-21_財產申報表_tmpcafb1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="101">
   <si>
     <t>name</t>
   </si>
@@ -73,6 +73,39 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺北市松山區敦化段五小段00290010地號</t>
+  </si>
+  <si>
+    <t>374分之24</t>
+  </si>
+  <si>
+    <t>田正超</t>
+  </si>
+  <si>
+    <t>72牟06月11曰</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-11-21</t>
+  </si>
+  <si>
+    <t>潘維剛</t>
+  </si>
+  <si>
+    <t>tmpcafb1</t>
+  </si>
+  <si>
     <t>臺北市松山區敦化段五小段02392000建號(陽台面積16.96平方公尺）</t>
   </si>
   <si>
@@ -85,18 +118,9 @@
     <t>72年06月11曰</t>
   </si>
   <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
     <t>LEXUS</t>
   </si>
   <si>
-    <t>田正超</t>
-  </si>
-  <si>
     <t>97年07月07日</t>
   </si>
   <si>
@@ -169,9 +193,6 @@
     <t>美金</t>
   </si>
   <si>
-    <t>潘維剛</t>
-  </si>
-  <si>
     <t>田iE超</t>
   </si>
   <si>
@@ -182,6 +203,12 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>力宇創業投資股份有限公司.</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>貝萊德世界礦業</t>
@@ -657,13 +684,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:Q1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:17">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,6 +738,59 @@
       </c>
       <c r="Q1" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2">
+        <v>374</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>678</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0641711229946524</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -720,7 +800,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -728,91 +808,114 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1">
         <v>2000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E2" s="2">
-        <v>900000</v>
+        <v>2000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E3" s="2">
-        <v>5000000</v>
+        <v>900000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
+        <v>111</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
         <v>112</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="2">
         <v>612900</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>91</v>
+      <c r="F5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -822,33 +925,113 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2">
         <v>104.3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>678</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="2">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>104.3</v>
       </c>
     </row>
   </sheetData>
@@ -857,502 +1040,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="1">
-        <v>4608</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="1">
-        <v>2100000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>914984</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>46</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
-        <v>2251</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>47</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
-        <v>40651</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>48</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="2">
-        <v>239.38</v>
-      </c>
-      <c r="G4" s="2">
-        <v>7229.28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>49</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <v>106118.41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>50</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="2">
-        <v>12.41</v>
-      </c>
-      <c r="G6" s="2">
-        <v>374.78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>51</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
-        <v>1150554.16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>52</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <v>1497020</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>53</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
-        <v>732700</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>54</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
-        <v>1737800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>55</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
-        <v>2343773</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>56</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
-        <v>1852572</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
-        <v>57</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
-        <v>2555875</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1">
-        <v>58</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
-        <v>5517</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1">
-        <v>59</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
-        <v>1177075</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1">
-        <v>60</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="2">
-        <v>649269.48</v>
-      </c>
-      <c r="G16" s="2">
-        <v>19607938.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1">
-        <v>61</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
-        <v>1552</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:N1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:14">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:8">
-      <c r="B1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2655.68</v>
-      </c>
-      <c r="F1" s="1">
-        <v>64.37</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1362,39 +1049,666 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1">
+        <v>4608</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2100000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4608</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2100000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>914984</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2">
+        <v>914984</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>46</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>47</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2">
+        <v>40651</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>48</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2">
+        <v>239.38</v>
+      </c>
+      <c r="G5" s="2">
+        <v>7229.28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>49</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
+        <v>106118.41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>50</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="2">
+        <v>12.41</v>
+      </c>
+      <c r="G7" s="2">
+        <v>374.78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>51</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
+        <v>1150554.16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>52</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2">
+        <v>1497020</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>53</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2">
+        <v>732700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>54</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2">
+        <v>1737800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>55</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2">
+        <v>2343773</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>56</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2">
+        <v>1852572</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>57</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2">
+        <v>2555875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>58</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2">
+        <v>5517</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>59</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2">
+        <v>1177075</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>60</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="2">
+        <v>649269.48</v>
+      </c>
+      <c r="G17" s="2">
+        <v>19607938.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>61</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2">
+        <v>1552</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>68</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="2">
+        <v>251993</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2519930</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2">
+        <v>678</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2655.68</v>
+      </c>
+      <c r="F1" s="1">
+        <v>64.37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>78</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2655.68</v>
+      </c>
+      <c r="F2" s="2">
+        <v>64.37</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>84</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>85</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>64</v>
+      <c r="B3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1404,7 +1718,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1412,41 +1726,55 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
+        <v>92</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
         <v>93</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
+      <c r="B4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1456,7 +1784,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1464,45 +1792,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1">
         <v>11798308</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>103</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="2">
+        <v>11798308</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>104</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="B3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="2">
         <v>7355323</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>73</v>
+      <c r="F3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/潘維剛_2011-11-21_財產申報表_tmpcafb1.xlsx
+++ b/legislator/property/output/normal/潘維剛_2011-11-21_財產申報表_tmpcafb1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="102">
   <si>
     <t>name</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>72年06月11曰</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>LEXUS</t>
@@ -811,19 +814,19 @@
         <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1">
         <v>2000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -834,19 +837,19 @@
         <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E2" s="2">
         <v>2000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -857,19 +860,19 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E3" s="2">
         <v>900000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -880,19 +883,19 @@
         <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E4" s="2">
         <v>5000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -903,19 +906,19 @@
         <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E5" s="2">
         <v>612900</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1041,38 +1044,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1">
-        <v>4608</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="1">
-        <v>2100000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2">
         <v>4608</v>
@@ -1081,13 +1105,34 @@
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2">
         <v>2100000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2">
+        <v>678</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1105,16 +1150,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1">
@@ -1126,16 +1171,16 @@
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1147,16 +1192,16 @@
         <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1168,13 +1213,13 @@
         <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
@@ -1189,13 +1234,13 @@
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>25</v>
@@ -1212,16 +1257,16 @@
         <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1233,13 +1278,13 @@
         <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>25</v>
@@ -1256,16 +1301,16 @@
         <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1277,13 +1322,13 @@
         <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>18</v>
@@ -1298,16 +1343,16 @@
         <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -1319,13 +1364,13 @@
         <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>18</v>
@@ -1340,13 +1385,13 @@
         <v>55</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>18</v>
@@ -1361,13 +1406,13 @@
         <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>18</v>
@@ -1382,13 +1427,13 @@
         <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>18</v>
@@ -1403,16 +1448,16 @@
         <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -1424,13 +1469,13 @@
         <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>25</v>
@@ -1445,16 +1490,16 @@
         <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F17" s="2">
         <v>649269.48</v>
@@ -1468,16 +1513,16 @@
         <v>61</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
@@ -1505,13 +1550,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1543,10 +1588,10 @@
         <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2">
         <v>251993</v>
@@ -1555,13 +1600,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2">
         <v>2519930</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -1597,13 +1642,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1">
         <v>2655.68</v>
@@ -1612,10 +1657,10 @@
         <v>64.37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1623,13 +1668,13 @@
         <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E2" s="2">
         <v>2655.68</v>
@@ -1638,10 +1683,10 @@
         <v>64.37</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1659,14 +1704,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1676,16 +1721,16 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1693,22 +1738,22 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1726,13 +1771,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1740,13 +1785,13 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1754,10 +1799,10 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>25</v>
@@ -1768,10 +1813,10 @@
         <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
@@ -1792,22 +1837,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1">
         <v>11798308</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1815,22 +1860,22 @@
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E2" s="2">
         <v>11798308</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1838,22 +1883,22 @@
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E3" s="2">
         <v>7355323</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/潘維剛_2011-11-21_財產申報表_tmpcafb1.xlsx
+++ b/legislator/property/output/normal/潘維剛_2011-11-21_財產申報表_tmpcafb1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="104">
   <si>
     <t>name</t>
   </si>
@@ -118,6 +118,9 @@
     <t>72年06月11曰</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -128,6 +131,9 @@
   </si>
   <si>
     <t>買*</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>立法院郵局（第25支局）</t>
@@ -814,19 +820,19 @@
         <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1">
         <v>2000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -837,19 +843,19 @@
         <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E2" s="2">
         <v>2000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -860,19 +866,19 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E3" s="2">
         <v>900000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -883,19 +889,19 @@
         <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E4" s="2">
         <v>5000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -906,19 +912,19 @@
         <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E5" s="2">
         <v>612900</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1010,7 +1016,7 @@
         <v>21</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>23</v>
@@ -1055,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1096,7 +1102,7 @@
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2">
         <v>4608</v>
@@ -1105,16 +1111,16 @@
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G2" s="2">
         <v>2100000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -1150,16 +1156,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1">
@@ -1171,16 +1177,16 @@
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1192,16 +1198,16 @@
         <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1213,13 +1219,13 @@
         <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
@@ -1234,13 +1240,13 @@
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>25</v>
@@ -1257,16 +1263,16 @@
         <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1278,13 +1284,13 @@
         <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>25</v>
@@ -1301,16 +1307,16 @@
         <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1322,13 +1328,13 @@
         <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>18</v>
@@ -1343,16 +1349,16 @@
         <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -1364,13 +1370,13 @@
         <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>18</v>
@@ -1385,13 +1391,13 @@
         <v>55</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>18</v>
@@ -1406,13 +1412,13 @@
         <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>18</v>
@@ -1427,13 +1433,13 @@
         <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>18</v>
@@ -1448,16 +1454,16 @@
         <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -1469,13 +1475,13 @@
         <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>25</v>
@@ -1490,16 +1496,16 @@
         <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F17" s="2">
         <v>649269.48</v>
@@ -1513,16 +1519,16 @@
         <v>61</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
@@ -1550,13 +1556,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1588,10 +1594,10 @@
         <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2">
         <v>251993</v>
@@ -1600,13 +1606,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G2" s="2">
         <v>2519930</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -1642,13 +1648,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1">
         <v>2655.68</v>
@@ -1657,10 +1663,10 @@
         <v>64.37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1668,13 +1674,13 @@
         <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2">
         <v>2655.68</v>
@@ -1683,10 +1689,10 @@
         <v>64.37</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1704,14 +1710,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1721,16 +1727,16 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1738,22 +1744,22 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1771,13 +1777,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1785,13 +1791,13 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1799,10 +1805,10 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>25</v>
@@ -1813,10 +1819,10 @@
         <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
@@ -1837,22 +1843,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1">
         <v>11798308</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1860,22 +1866,22 @@
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E2" s="2">
         <v>11798308</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1883,22 +1889,22 @@
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E3" s="2">
         <v>7355323</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/潘維剛_2011-11-21_財產申報表_tmpcafb1.xlsx
+++ b/legislator/property/output/normal/潘維剛_2011-11-21_財產申報表_tmpcafb1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="107">
   <si>
     <t>name</t>
   </si>
@@ -136,82 +136,91 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>立法院郵局（第25支局）</t>
   </si>
   <si>
+    <t>台北長安郵局（第46支局）</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行營業部</t>
+  </si>
+  <si>
+    <t>花旗（台灣）銀行營業部</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行敦南分行</t>
+  </si>
+  <si>
+    <t>台新國際商業銀行敦北分行</t>
+  </si>
+  <si>
+    <t>永豐商業銀行西松分行</t>
+  </si>
+  <si>
+    <t>永豐商業銀行板新分行</t>
+  </si>
+  <si>
+    <t>日盛國際商業銀行松山分行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行總行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行永春分行</t>
+  </si>
+  <si>
+    <t>玉山商業銀行民生分行</t>
+  </si>
+  <si>
+    <t>7戈豐商業銀行松江分行</t>
+  </si>
+  <si>
+    <t>永豐商業銀行松江分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行南京東路分行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>其他存款</t>
+  </si>
+  <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
+    <t>美金</t>
+  </si>
+  <si>
     <t>潘维剛</t>
   </si>
   <si>
-    <t>台北長安郵局（第46支局）</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行營業部</t>
-  </si>
-  <si>
-    <t>花旗（台灣）銀行營業部</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行敦南分行</t>
-  </si>
-  <si>
-    <t>台新國際商業銀行敦北分行</t>
-  </si>
-  <si>
-    <t>永豐商業銀行西松分行</t>
-  </si>
-  <si>
-    <t>永豐商業銀行板新分行</t>
-  </si>
-  <si>
-    <t>日盛國際商業銀行松山分行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行總行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行永春分行</t>
-  </si>
-  <si>
-    <t>玉山商業銀行民生分行</t>
-  </si>
-  <si>
-    <t>7戈豐商業銀行松江分行</t>
-  </si>
-  <si>
-    <t>永豐商業銀行松江分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行南京東路分行</t>
-  </si>
-  <si>
-    <t>其他存款</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>美金</t>
-  </si>
-  <si>
     <t>田iE超</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>力宇創業投資股份有限公司.</t>
@@ -820,19 +829,19 @@
         <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1">
         <v>2000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -843,19 +852,19 @@
         <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E2" s="2">
         <v>2000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -866,19 +875,19 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E3" s="2">
         <v>900000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -889,19 +898,19 @@
         <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E4" s="2">
         <v>5000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -912,19 +921,19 @@
         <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E5" s="2">
         <v>612900</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1148,13 +1157,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
@@ -1165,35 +1174,75 @@
         <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>914984</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+        <v>61</v>
+      </c>
+      <c r="F2" s="2">
         <v>914984</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2">
+        <v>678</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>46</v>
       </c>
@@ -1201,20 +1250,40 @@
         <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+        <v>61</v>
+      </c>
+      <c r="F3" s="2">
         <v>2251</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2">
+        <v>678</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>47</v>
       </c>
@@ -1222,20 +1291,40 @@
         <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>40651</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="2">
+        <v>678</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>48</v>
       </c>
@@ -1243,22 +1332,40 @@
         <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="2">
-        <v>239.38</v>
-      </c>
-      <c r="G5" s="2">
         <v>7229.28</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="2">
+        <v>678</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>49</v>
       </c>
@@ -1266,20 +1373,40 @@
         <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+        <v>61</v>
+      </c>
+      <c r="F6" s="2">
         <v>106118.41</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="2">
+        <v>678</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>50</v>
       </c>
@@ -1287,22 +1414,40 @@
         <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="2">
-        <v>12.41</v>
-      </c>
-      <c r="G7" s="2">
         <v>374.78</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="2">
+        <v>678</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>51</v>
       </c>
@@ -1310,20 +1455,40 @@
         <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+        <v>61</v>
+      </c>
+      <c r="F8" s="2">
         <v>1150554.16</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="2">
+        <v>678</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>52</v>
       </c>
@@ -1331,20 +1496,40 @@
         <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>1497020</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="2">
+        <v>678</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>53</v>
       </c>
@@ -1352,20 +1537,40 @@
         <v>46</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+        <v>62</v>
+      </c>
+      <c r="F10" s="2">
         <v>732700</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="2">
+        <v>678</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>54</v>
       </c>
@@ -1373,20 +1578,40 @@
         <v>47</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="F11" s="2">
         <v>1737800</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="2">
+        <v>678</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>55</v>
       </c>
@@ -1394,20 +1619,40 @@
         <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="F12" s="2">
         <v>2343773</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="2">
+        <v>678</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>56</v>
       </c>
@@ -1415,20 +1660,40 @@
         <v>49</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="F13" s="2">
         <v>1852572</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="2">
+        <v>678</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>57</v>
       </c>
@@ -1436,20 +1701,40 @@
         <v>50</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
+      <c r="F14" s="2">
         <v>2555875</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="2">
+        <v>678</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>58</v>
       </c>
@@ -1457,20 +1742,40 @@
         <v>51</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
+        <v>61</v>
+      </c>
+      <c r="F15" s="2">
         <v>5517</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="2">
+        <v>678</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>59</v>
       </c>
@@ -1478,20 +1783,40 @@
         <v>52</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
+      <c r="F16" s="2">
         <v>1177075</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="2">
+        <v>678</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>60</v>
       </c>
@@ -1499,22 +1824,40 @@
         <v>53</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="F17" s="2">
-        <v>649269.48</v>
-      </c>
-      <c r="G17" s="2">
         <v>19607938.3</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="2">
+        <v>678</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>61</v>
       </c>
@@ -1522,17 +1865,37 @@
         <v>54</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
+        <v>61</v>
+      </c>
+      <c r="F18" s="2">
         <v>1552</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="2">
+        <v>678</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" s="2">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1556,13 +1919,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1594,10 +1957,10 @@
         <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2">
         <v>251993</v>
@@ -1606,13 +1969,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="G2" s="2">
         <v>2519930</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -1648,13 +2011,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1">
         <v>2655.68</v>
@@ -1663,10 +2026,10 @@
         <v>64.37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1674,13 +2037,13 @@
         <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E2" s="2">
         <v>2655.68</v>
@@ -1689,10 +2052,10 @@
         <v>64.37</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1710,14 +2073,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1727,16 +2090,16 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1744,22 +2107,22 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1777,13 +2140,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1791,13 +2154,13 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1805,10 +2168,10 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>25</v>
@@ -1819,10 +2182,10 @@
         <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
@@ -1843,22 +2206,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1">
         <v>11798308</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1866,22 +2229,22 @@
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E2" s="2">
         <v>11798308</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1889,22 +2252,22 @@
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E3" s="2">
         <v>7355323</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/潘維剛_2011-11-21_財產申報表_tmpcafb1.xlsx
+++ b/legislator/property/output/normal/潘維剛_2011-11-21_財產申報表_tmpcafb1.xlsx
@@ -13,17 +13,16 @@
     <sheet name="存款" sheetId="4" r:id="rId4"/>
     <sheet name="股票" sheetId="5" r:id="rId5"/>
     <sheet name="基金受益憑證" sheetId="6" r:id="rId6"/>
-    <sheet name="其他有價證券" sheetId="7" r:id="rId7"/>
-    <sheet name="保險" sheetId="8" r:id="rId8"/>
-    <sheet name="債務" sheetId="9" r:id="rId9"/>
-    <sheet name="事業投資" sheetId="10" r:id="rId10"/>
+    <sheet name="保險" sheetId="7" r:id="rId7"/>
+    <sheet name="債務" sheetId="8" r:id="rId8"/>
+    <sheet name="事業投資" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="99">
   <si>
     <t>name</t>
   </si>
@@ -229,40 +228,16 @@
     <t>stock</t>
   </si>
   <si>
+    <t>dealer</t>
+  </si>
+  <si>
     <t>貝萊德世界礦業</t>
   </si>
   <si>
     <t>永豐業銀行</t>
   </si>
   <si>
-    <t>516257287</t>
-  </si>
-  <si>
-    <t>(九）珠寶古董.字畫及#</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總</t>
-  </si>
-  <si>
-    <t>【額：新臺幣元）.</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>所有人</t>
+    <t>fund</t>
   </si>
   <si>
     <t>富邦人壽</t>
@@ -816,131 +791,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2000000</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>109</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" s="2">
-        <v>2000000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>110</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="2">
-        <v>900000</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>111</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="2">
-        <v>5000000</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>112</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E5" s="2">
-        <v>612900</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q2"/>
@@ -2003,47 +1853,68 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2655.68</v>
-      </c>
-      <c r="F1" s="1">
-        <v>64.37</v>
+      <c r="E1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E2" s="2">
         <v>2655.68</v>
@@ -2054,8 +1925,29 @@
       <c r="G2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>70</v>
+      <c r="H2" s="2">
+        <v>5162572.87</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>678</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="2">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2064,6 +1956,72 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>91</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>92</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>93</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -2073,122 +2031,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="1">
+        <v>11798308</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="2">
+        <v>11798308</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="G2" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
+      </c>
+      <c r="E3" s="2">
+        <v>7355323</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>91</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>92</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>93</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2198,7 +2102,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2206,68 +2110,114 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="1">
-        <v>11798308</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="2">
-        <v>11798308</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="2">
+        <v>900000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>111</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>112</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="2">
-        <v>7355323</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>88</v>
+      <c r="D5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="2">
+        <v>612900</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/潘維剛_2011-11-21_財產申報表_tmpcafb1.xlsx
+++ b/legislator/property/output/normal/潘維剛_2011-11-21_財產申報表_tmpcafb1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="106">
   <si>
     <t>name</t>
   </si>
@@ -240,85 +240,106 @@
     <t>fund</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>富邦人壽</t>
   </si>
   <si>
+    <t>中國人壽</t>
+  </si>
+  <si>
     <t>吉祥變額萬能终身壽險(A型）</t>
   </si>
   <si>
-    <t>中國人壽</t>
-  </si>
-  <si>
     <t>吉祥變額萬能終身壽險(A型）</t>
   </si>
   <si>
     <t>限期繳k單利增值終身壽險已型</t>
   </si>
   <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>—皞借款</t>
   </si>
   <si>
+    <t>一般借款</t>
+  </si>
+  <si>
     <t>永骂銀行西松分拧臺北市松山區東興路</t>
   </si>
   <si>
+    <t>永豐銀行板新分行新北市板橋區民權路</t>
+  </si>
+  <si>
     <t>95年10月27B</t>
   </si>
   <si>
+    <t>96年07月25日</t>
+  </si>
+  <si>
     <t>房貸</t>
   </si>
   <si>
-    <t>一般借款</t>
-  </si>
-  <si>
-    <t>永豐銀行板新分行新北市板橋區民權路</t>
-  </si>
-  <si>
-    <t>96年07月25日</t>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>address</t>
   </si>
   <si>
     <t>傳智國際文化事業座份有限公司</t>
   </si>
   <si>
+    <t>女人網股份有限公司</t>
+  </si>
+  <si>
+    <t>春田國際有限公司</t>
+  </si>
+  <si>
+    <t>中餘國際股份有限公司</t>
+  </si>
+  <si>
     <t>臺北市羅斯福路2段116號3樓</t>
   </si>
   <si>
+    <t>臺北市杭州南路1段63號5樓之1</t>
+  </si>
+  <si>
+    <t>臺北市民權東路3段106巷36號7樓</t>
+  </si>
+  <si>
+    <t>新北市寶橋路235巷65號5樓</t>
+  </si>
+  <si>
     <t>89年08月11曰</t>
   </si>
   <si>
+    <t>98年08月10日</t>
+  </si>
+  <si>
+    <t>92年03月20日</t>
+  </si>
+  <si>
+    <t>82年06月28日</t>
+  </si>
+  <si>
     <t>投資</t>
   </si>
   <si>
-    <t>女人網股份有限公司</t>
-  </si>
-  <si>
-    <t>春田國際有限公司</t>
-  </si>
-  <si>
-    <t>中餘國際股份有限公司</t>
-  </si>
-  <si>
-    <t>臺北市杭州南路1段63號5樓之1</t>
-  </si>
-  <si>
-    <t>臺北市民權東路3段106巷36號7樓</t>
-  </si>
-  <si>
-    <t>新北市寶橋路235巷65號5樓</t>
-  </si>
-  <si>
-    <t>98年08月10日</t>
-  </si>
-  <si>
-    <t>92年03月20日</t>
-  </si>
-  <si>
-    <t>82年06月28日</t>
-  </si>
-  <si>
     <t>合夥‘</t>
   </si>
   <si>
     <t>合夥</t>
+  </si>
+  <si>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -1957,52 +1978,115 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2">
+        <v>678</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2">
+        <v>678</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>93</v>
       </c>
@@ -2010,10 +2094,31 @@
         <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="2">
+        <v>678</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="2">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2023,76 +2128,139 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="1">
-        <v>11798308</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>103</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E2" s="2">
         <v>11798308</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>87</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2">
+        <v>678</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2">
         <v>7355323</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2">
+        <v>678</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="2">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2102,33 +2270,54 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2000000</v>
+        <v>89</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>109</v>
       </c>
@@ -2136,22 +2325,43 @@
         <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E2" s="2">
         <v>2000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>102</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2">
+        <v>678</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>110</v>
       </c>
@@ -2159,22 +2369,43 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E3" s="2">
         <v>900000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>102</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2">
+        <v>678</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>111</v>
       </c>
@@ -2182,22 +2413,43 @@
         <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E4" s="2">
         <v>5000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>103</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="2">
+        <v>678</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>112</v>
       </c>
@@ -2205,19 +2457,40 @@
         <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E5" s="2">
         <v>612900</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="2">
+        <v>678</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="2">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
